--- a/Shinyapp/Data/Suspensions.xlsx
+++ b/Shinyapp/Data/Suspensions.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Downloads\DSPG\2022_DSPG_Loudoun\shinyapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{805D2BBC-3EE8-46A9-A597-EE74124716B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F0761E-7C2F-4C03-8580-873D6A12A5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Short Term Suspensions" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="19">
   <si>
     <t>Year</t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t>Percent of the Student Population</t>
-  </si>
-  <si>
-    <t>Number Suspended Short Term</t>
-  </si>
-  <si>
-    <t>Number of Short Term Suspendable Incidents</t>
-  </si>
-  <si>
-    <t>Percent of Short Term Suspensions</t>
   </si>
   <si>
     <t>2018 - 2019</t>
@@ -91,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -925,21 +916,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="2" max="2" width="15.3125" customWidth="1"/>
+    <col min="3" max="3" width="17.15625" customWidth="1"/>
     <col min="5" max="5" width="32.9453125" customWidth="1"/>
-    <col min="6" max="6" width="30.41796875" customWidth="1"/>
-    <col min="7" max="7" width="30.47265625" customWidth="1"/>
-    <col min="8" max="8" width="26.20703125" customWidth="1"/>
-    <col min="9" max="9" width="14.89453125" customWidth="1"/>
+    <col min="6" max="6" width="14.89453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -955,944 +947,818 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>6.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>53.6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>7.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>79.400000000000006</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>83.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>6.9</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>9.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>62.6</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>17.3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>11.8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>61.6</v>
       </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>16.2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>9.6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>5.6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>72.3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>9.6</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>9.1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>82.8</v>
       </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>9.6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>19.3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>52.3</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>18.8</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>5.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>80.8</v>
       </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>6.9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>15.6</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>7.8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>64.7</v>
       </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-      <c r="H36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>17.8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>11.1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>5.4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>62</v>
       </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <v>6</v>
-      </c>
-      <c r="H40">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>15.2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>9.4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>6.4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E46">
         <v>7.9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>3.4</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>86.4</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>100</v>
-      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>6.6</v>
@@ -1900,16 +1766,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <v>18.399999999999999</v>
@@ -1917,16 +1783,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="C51" t="s">
-        <v>12</v>
-      </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>7.1</v>
@@ -1934,16 +1800,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>52</v>
@@ -1951,16 +1817,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E53">
         <v>20.9</v>
@@ -1968,16 +1834,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <v>4.9000000000000004</v>
@@ -1985,16 +1851,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E55">
         <v>4.9000000000000004</v>
@@ -2002,16 +1868,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E56">
         <v>81.5</v>
@@ -2019,16 +1885,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>6.9</v>
@@ -2036,16 +1902,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E58">
         <v>17.3</v>
@@ -2053,16 +1919,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>9.6</v>
@@ -2070,16 +1936,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E60">
         <v>57.9</v>
@@ -2087,16 +1953,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <v>16.899999999999999</v>
@@ -2104,16 +1970,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E62">
         <v>10.1</v>
@@ -2121,16 +1987,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E63">
         <v>6.4</v>
@@ -2138,178 +2004,169 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E64">
         <v>61.1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E65">
         <v>16.899999999999999</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E66">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E67">
         <v>7.3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E68">
         <v>71.3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E69">
         <v>8.6</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E70">
         <v>5.9</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E71">
         <v>3.4</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E72">
         <v>85.8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E73">
         <v>5.7</v>
